--- a/public/data/lime/lime_table_guinea.xlsx
+++ b/public/data/lime/lime_table_guinea.xlsx
@@ -1282,31 +1282,31 @@
         <v>88</v>
       </c>
       <c r="D2" t="n">
-        <v>3.89</v>
+        <v>2.74</v>
       </c>
       <c r="E2" t="n">
-        <v>2.77</v>
+        <v>0.68</v>
       </c>
       <c r="F2" t="n">
-        <v>1.49</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.7</v>
+        <v>2.35</v>
       </c>
       <c r="K2" t="n">
-        <v>2.53</v>
+        <v>0.43</v>
       </c>
       <c r="L2" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -1329,37 +1329,37 @@
         <v>87</v>
       </c>
       <c r="D3" t="n">
-        <v>3.94</v>
+        <v>3.06</v>
       </c>
       <c r="E3" t="n">
-        <v>2.94</v>
+        <v>1.11</v>
       </c>
       <c r="F3" t="n">
-        <v>1.78</v>
+        <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.24</v>
+        <v>2.31</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>0.48</v>
       </c>
       <c r="L3" t="n">
-        <v>0.81</v>
+        <v>0.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1376,13 +1376,13 @@
         <v>89</v>
       </c>
       <c r="D4" t="n">
-        <v>3.54</v>
+        <v>2.69</v>
       </c>
       <c r="E4" t="n">
-        <v>2.49</v>
+        <v>0.98</v>
       </c>
       <c r="F4" t="n">
-        <v>1.29</v>
+        <v>0.17</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1394,19 +1394,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>2.11</v>
       </c>
       <c r="K4" t="n">
-        <v>2.11</v>
+        <v>0.39</v>
       </c>
       <c r="L4" t="n">
-        <v>0.79</v>
+        <v>0.02</v>
       </c>
       <c r="M4" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>90</v>
       </c>
       <c r="D5" t="n">
-        <v>2.77</v>
+        <v>2.41</v>
       </c>
       <c r="E5" t="n">
-        <v>1.82</v>
+        <v>1.21</v>
       </c>
       <c r="F5" t="n">
-        <v>0.92</v>
+        <v>0.29</v>
       </c>
       <c r="G5" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1441,16 +1441,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.66</v>
+        <v>2.11</v>
       </c>
       <c r="K5" t="n">
-        <v>1.62</v>
+        <v>0.7</v>
       </c>
       <c r="L5" t="n">
-        <v>0.63</v>
+        <v>0.05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1470,16 +1470,16 @@
         <v>91</v>
       </c>
       <c r="D6" t="n">
-        <v>1.01</v>
+        <v>0.65</v>
       </c>
       <c r="E6" t="n">
-        <v>0.23</v>
+        <v>0.06</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1488,16 +1488,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.03</v>
+        <v>0.58</v>
       </c>
       <c r="K6" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1517,16 +1517,16 @@
         <v>92</v>
       </c>
       <c r="D7" t="n">
-        <v>11.97</v>
+        <v>6.43</v>
       </c>
       <c r="E7" t="n">
-        <v>9.53</v>
+        <v>0.07</v>
       </c>
       <c r="F7" t="n">
-        <v>6.68</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.62</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1535,19 +1535,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>1.25</v>
       </c>
       <c r="K7" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1564,34 +1564,34 @@
         <v>94</v>
       </c>
       <c r="D8" t="n">
-        <v>2.9</v>
+        <v>2.57</v>
       </c>
       <c r="E8" t="n">
-        <v>2.09</v>
+        <v>1.65</v>
       </c>
       <c r="F8" t="n">
-        <v>1.45</v>
+        <v>0.93</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.09</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.35</v>
-      </c>
       <c r="L8" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1611,16 +1611,16 @@
         <v>95</v>
       </c>
       <c r="D9" t="n">
-        <v>1.1</v>
+        <v>0.68</v>
       </c>
       <c r="E9" t="n">
-        <v>0.33</v>
+        <v>0.13</v>
       </c>
       <c r="F9" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1629,16 +1629,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9</v>
+        <v>0.43</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1658,16 +1658,16 @@
         <v>93</v>
       </c>
       <c r="D10" t="n">
-        <v>3.36</v>
+        <v>3.1</v>
       </c>
       <c r="E10" t="n">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="F10" t="n">
-        <v>1.75</v>
+        <v>1.27</v>
       </c>
       <c r="G10" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1676,16 +1676,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.8</v>
+        <v>2.51</v>
       </c>
       <c r="K10" t="n">
-        <v>1.91</v>
+        <v>1.48</v>
       </c>
       <c r="L10" t="n">
-        <v>1.14</v>
+        <v>0.7</v>
       </c>
       <c r="M10" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1705,13 +1705,13 @@
         <v>96</v>
       </c>
       <c r="D11" t="n">
-        <v>5.69</v>
+        <v>5.38</v>
       </c>
       <c r="E11" t="n">
-        <v>4.63</v>
+        <v>3.96</v>
       </c>
       <c r="F11" t="n">
-        <v>3.39</v>
+        <v>2.45</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1723,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4.35</v>
+        <v>4.01</v>
       </c>
       <c r="K11" t="n">
-        <v>3.23</v>
+        <v>2.49</v>
       </c>
       <c r="L11" t="n">
-        <v>1.96</v>
+        <v>1.27</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1752,34 +1752,34 @@
         <v>97</v>
       </c>
       <c r="D12" t="n">
-        <v>3.33</v>
+        <v>2.97</v>
       </c>
       <c r="E12" t="n">
-        <v>2.32</v>
+        <v>1.58</v>
       </c>
       <c r="F12" t="n">
-        <v>1.21</v>
+        <v>0.4</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="L12" t="n">
         <v>0.08</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.49</v>
-      </c>
       <c r="M12" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1799,13 +1799,13 @@
         <v>98</v>
       </c>
       <c r="D13" t="n">
-        <v>6.67</v>
+        <v>6.27</v>
       </c>
       <c r="E13" t="n">
-        <v>5.43</v>
+        <v>4.56</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>2.68</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1817,13 +1817,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4.29</v>
+        <v>3.87</v>
       </c>
       <c r="K13" t="n">
-        <v>3.14</v>
+        <v>2.25</v>
       </c>
       <c r="L13" t="n">
-        <v>1.83</v>
+        <v>0.73</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>99</v>
       </c>
       <c r="D14" t="n">
-        <v>2.58</v>
+        <v>2.25</v>
       </c>
       <c r="E14" t="n">
-        <v>1.62</v>
+        <v>1.02</v>
       </c>
       <c r="F14" t="n">
-        <v>0.69</v>
+        <v>0.29</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1864,16 +1864,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.08</v>
+        <v>1.72</v>
       </c>
       <c r="K14" t="n">
-        <v>1.13</v>
+        <v>0.56</v>
       </c>
       <c r="L14" t="n">
-        <v>0.31</v>
+        <v>0.09</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1893,16 +1893,16 @@
         <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>1.01</v>
+        <v>0.72</v>
       </c>
       <c r="E15" t="n">
-        <v>0.42</v>
+        <v>0.17</v>
       </c>
       <c r="F15" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1911,16 +1911,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.13</v>
+        <v>0.81</v>
       </c>
       <c r="K15" t="n">
-        <v>0.47</v>
+        <v>0.14</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1940,16 +1940,16 @@
         <v>101</v>
       </c>
       <c r="D16" t="n">
-        <v>0.99</v>
+        <v>0.65</v>
       </c>
       <c r="E16" t="n">
-        <v>0.28</v>
+        <v>0.02</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1958,16 +1958,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.88</v>
+        <v>0.47</v>
       </c>
       <c r="K16" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1987,13 +1987,13 @@
         <v>103</v>
       </c>
       <c r="D17" t="n">
-        <v>5.37</v>
+        <v>3.88</v>
       </c>
       <c r="E17" t="n">
-        <v>4.02</v>
+        <v>1.16</v>
       </c>
       <c r="F17" t="n">
-        <v>2.45</v>
+        <v>0.16</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>4.4</v>
+        <v>2.76</v>
       </c>
       <c r="K17" t="n">
-        <v>3.02</v>
+        <v>0.31</v>
       </c>
       <c r="L17" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2034,37 +2034,37 @@
         <v>104</v>
       </c>
       <c r="D18" t="n">
-        <v>3.58</v>
+        <v>2.42</v>
       </c>
       <c r="E18" t="n">
-        <v>2.4</v>
+        <v>0.44</v>
       </c>
       <c r="F18" t="n">
-        <v>1.09</v>
+        <v>0.04</v>
       </c>
       <c r="G18" t="n">
-        <v>4.31</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>1.69</v>
       </c>
       <c r="K18" t="n">
-        <v>1.91</v>
+        <v>0.08</v>
       </c>
       <c r="L18" t="n">
-        <v>0.65</v>
+        <v>0.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -2081,37 +2081,37 @@
         <v>105</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>3.73</v>
       </c>
       <c r="E19" t="n">
-        <v>3.74</v>
+        <v>1.24</v>
       </c>
       <c r="F19" t="n">
-        <v>2.26</v>
+        <v>0.17</v>
       </c>
       <c r="G19" t="n">
-        <v>4.76</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4.79</v>
+        <v>3.57</v>
       </c>
       <c r="K19" t="n">
-        <v>3.43</v>
+        <v>1.32</v>
       </c>
       <c r="L19" t="n">
-        <v>1.86</v>
+        <v>0.18</v>
       </c>
       <c r="M19" t="n">
-        <v>4.06</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>102</v>
       </c>
       <c r="D20" t="n">
-        <v>4.35</v>
+        <v>4.01</v>
       </c>
       <c r="E20" t="n">
-        <v>3.42</v>
+        <v>2.7</v>
       </c>
       <c r="F20" t="n">
-        <v>2.33</v>
+        <v>1.34</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2146,19 +2146,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.81</v>
+        <v>2.32</v>
       </c>
       <c r="K20" t="n">
-        <v>1.86</v>
+        <v>1.06</v>
       </c>
       <c r="L20" t="n">
-        <v>0.87</v>
+        <v>0.23</v>
       </c>
       <c r="M20" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -2175,13 +2175,13 @@
         <v>106</v>
       </c>
       <c r="D21" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="E21" t="n">
-        <v>2.37</v>
+        <v>1.57</v>
       </c>
       <c r="F21" t="n">
-        <v>1.35</v>
+        <v>0.48</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2193,16 +2193,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.89</v>
+        <v>2.27</v>
       </c>
       <c r="K21" t="n">
-        <v>1.8</v>
+        <v>0.74</v>
       </c>
       <c r="L21" t="n">
-        <v>0.68</v>
+        <v>0.03</v>
       </c>
       <c r="M21" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2222,16 +2222,16 @@
         <v>108</v>
       </c>
       <c r="D22" t="n">
-        <v>1.27</v>
+        <v>0.88</v>
       </c>
       <c r="E22" t="n">
-        <v>0.52</v>
+        <v>0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="G22" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2240,16 +2240,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.85</v>
+        <v>0.42</v>
       </c>
       <c r="K22" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2269,16 +2269,16 @@
         <v>107</v>
       </c>
       <c r="D23" t="n">
-        <v>2.14</v>
+        <v>1.8</v>
       </c>
       <c r="E23" t="n">
-        <v>1.38</v>
+        <v>0.96</v>
       </c>
       <c r="F23" t="n">
-        <v>0.85</v>
+        <v>0.51</v>
       </c>
       <c r="G23" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.63</v>
+        <v>1.22</v>
       </c>
       <c r="K23" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2316,16 +2316,16 @@
         <v>109</v>
       </c>
       <c r="D24" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="E24" t="n">
-        <v>2.84</v>
+        <v>2.25</v>
       </c>
       <c r="F24" t="n">
-        <v>1.92</v>
+        <v>1.15</v>
       </c>
       <c r="G24" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>3.35</v>
+        <v>2.9</v>
       </c>
       <c r="K24" t="n">
-        <v>2.04</v>
+        <v>1.23</v>
       </c>
       <c r="L24" t="n">
-        <v>0.74</v>
+        <v>0.08</v>
       </c>
       <c r="M24" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2363,16 +2363,16 @@
         <v>110</v>
       </c>
       <c r="D25" t="n">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="E25" t="n">
-        <v>0.98</v>
+        <v>0.56</v>
       </c>
       <c r="F25" t="n">
-        <v>0.44</v>
+        <v>0.19</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2381,16 +2381,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.13</v>
+        <v>0.56</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2410,16 +2410,16 @@
         <v>111</v>
       </c>
       <c r="D26" t="n">
-        <v>1.23</v>
+        <v>0.8</v>
       </c>
       <c r="E26" t="n">
-        <v>0.41</v>
+        <v>0.19</v>
       </c>
       <c r="F26" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="G26" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2428,16 +2428,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.98</v>
+        <v>0.54</v>
       </c>
       <c r="K26" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2457,16 +2457,16 @@
         <v>113</v>
       </c>
       <c r="D27" t="n">
-        <v>3.79</v>
+        <v>3.51</v>
       </c>
       <c r="E27" t="n">
-        <v>3.07</v>
+        <v>2.54</v>
       </c>
       <c r="F27" t="n">
-        <v>2.31</v>
+        <v>1.61</v>
       </c>
       <c r="G27" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>3.09</v>
+        <v>2.56</v>
       </c>
       <c r="K27" t="n">
-        <v>1.87</v>
+        <v>1.19</v>
       </c>
       <c r="L27" t="n">
-        <v>0.9</v>
+        <v>0.29</v>
       </c>
       <c r="M27" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2504,16 +2504,16 @@
         <v>112</v>
       </c>
       <c r="D28" t="n">
-        <v>4.42</v>
+        <v>4.14</v>
       </c>
       <c r="E28" t="n">
-        <v>3.63</v>
+        <v>3.08</v>
       </c>
       <c r="F28" t="n">
-        <v>2.76</v>
+        <v>1.96</v>
       </c>
       <c r="G28" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2522,16 +2522,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3.48</v>
+        <v>3.11</v>
       </c>
       <c r="K28" t="n">
-        <v>2.6</v>
+        <v>2.13</v>
       </c>
       <c r="L28" t="n">
-        <v>1.86</v>
+        <v>1.24</v>
       </c>
       <c r="M28" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2551,16 +2551,16 @@
         <v>114</v>
       </c>
       <c r="D29" t="n">
-        <v>4.02</v>
+        <v>3.77</v>
       </c>
       <c r="E29" t="n">
-        <v>3.26</v>
+        <v>2.75</v>
       </c>
       <c r="F29" t="n">
-        <v>2.4</v>
+        <v>1.67</v>
       </c>
       <c r="G29" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>3.44</v>
+        <v>3.1</v>
       </c>
       <c r="K29" t="n">
-        <v>2.43</v>
+        <v>1.72</v>
       </c>
       <c r="L29" t="n">
-        <v>1.3</v>
+        <v>0.51</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2598,16 +2598,16 @@
         <v>116</v>
       </c>
       <c r="D30" t="n">
-        <v>4.68</v>
+        <v>4.13</v>
       </c>
       <c r="E30" t="n">
-        <v>3.24</v>
+        <v>2.17</v>
       </c>
       <c r="F30" t="n">
-        <v>1.73</v>
+        <v>0.7</v>
       </c>
       <c r="G30" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2616,16 +2616,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.71</v>
+        <v>2.27</v>
       </c>
       <c r="K30" t="n">
-        <v>1.61</v>
+        <v>0.86</v>
       </c>
       <c r="L30" t="n">
-        <v>0.61</v>
+        <v>0.11</v>
       </c>
       <c r="M30" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2645,13 +2645,13 @@
         <v>117</v>
       </c>
       <c r="D31" t="n">
-        <v>4.07</v>
+        <v>3.74</v>
       </c>
       <c r="E31" t="n">
-        <v>3.11</v>
+        <v>2.4</v>
       </c>
       <c r="F31" t="n">
-        <v>1.99</v>
+        <v>1.15</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2663,13 +2663,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>5.22</v>
+        <v>4.93</v>
       </c>
       <c r="K31" t="n">
-        <v>4.23</v>
+        <v>3.59</v>
       </c>
       <c r="L31" t="n">
-        <v>3.07</v>
+        <v>2.12</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -2692,13 +2692,13 @@
         <v>118</v>
       </c>
       <c r="D32" t="n">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="E32" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="F32" t="n">
-        <v>0.69</v>
+        <v>0.19</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.39</v>
+        <v>2.82</v>
       </c>
       <c r="K32" t="n">
-        <v>1.91</v>
+        <v>0.93</v>
       </c>
       <c r="L32" t="n">
-        <v>0.6</v>
+        <v>0.15</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -2739,13 +2739,13 @@
         <v>119</v>
       </c>
       <c r="D33" t="n">
-        <v>4.76</v>
+        <v>4.36</v>
       </c>
       <c r="E33" t="n">
-        <v>3.71</v>
+        <v>2.85</v>
       </c>
       <c r="F33" t="n">
-        <v>2.49</v>
+        <v>1.32</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -2757,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>5.6</v>
+        <v>5.15</v>
       </c>
       <c r="K33" t="n">
-        <v>4.34</v>
+        <v>3.36</v>
       </c>
       <c r="L33" t="n">
-        <v>2.86</v>
+        <v>1.6</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -2786,13 +2786,13 @@
         <v>115</v>
       </c>
       <c r="D34" t="n">
-        <v>3.07</v>
+        <v>2.57</v>
       </c>
       <c r="E34" t="n">
-        <v>1.92</v>
+        <v>0.93</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7</v>
+        <v>0.12</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -2804,13 +2804,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="K34" t="n">
-        <v>1.92</v>
+        <v>0.83</v>
       </c>
       <c r="L34" t="n">
-        <v>0.52</v>
+        <v>0.01</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -2833,13 +2833,13 @@
         <v>120</v>
       </c>
       <c r="D35" t="n">
-        <v>2.87</v>
+        <v>2.28</v>
       </c>
       <c r="E35" t="n">
-        <v>1.79</v>
+        <v>0.57</v>
       </c>
       <c r="F35" t="n">
-        <v>0.58</v>
+        <v>0.02</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -2851,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.29</v>
+        <v>1.72</v>
       </c>
       <c r="K35" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
